--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/20/seed3/result_data_RandomForest.xlsx
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.44379999999999</v>
+        <v>13.58789999999999</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>11.83300000000001</v>
+        <v>11.685</v>
       </c>
     </row>
     <row r="7">
@@ -556,15 +556,15 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.843199999999992</v>
+        <v>-7.837099999999992</v>
       </c>
       <c r="E7" t="n">
-        <v>12.41810000000001</v>
+        <v>12.1008</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.1552</v>
+        <v>-21.11560000000002</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>12.8174</v>
+        <v>12.51320000000001</v>
       </c>
     </row>
     <row r="9">
@@ -593,12 +593,12 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>9.598499999999989</v>
+        <v>9.650599999999988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.49399999999997</v>
+        <v>-20.48599999999997</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>11.4555</v>
+        <v>11.28369999999999</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.54460000000003</v>
+        <v>-22.44490000000003</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>12.91369999999998</v>
+        <v>12.76569999999999</v>
       </c>
     </row>
     <row r="13">
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>6.546199999999999</v>
+        <v>6.343599999999998</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.51750000000003</v>
+        <v>-22.38120000000002</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.385900000000003</v>
+        <v>-8.278699999999999</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.28800000000003</v>
+        <v>-22.35920000000004</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
